--- a/Extraction_Config.xlsx
+++ b/Extraction_Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="725">
   <si>
     <t>Domain</t>
   </si>
@@ -2174,12 +2174,6 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>C:\Users\ehong\OneDrive\Documents\UiPath\AustralianUnityHardPart\Images\Date on which referral received.PNG</t>
-  </si>
-  <si>
-    <t>C:\Users\ehong\OneDrive\Documents\UiPath\AustralianUnityHardPart\Images\Start date.PNG</t>
-  </si>
-  <si>
     <t>DiffX</t>
   </si>
   <si>
@@ -2190,13 +2184,31 @@
   </si>
   <si>
     <t>Height</t>
+  </si>
+  <si>
+    <t>Images\Date on which referral received.PNG</t>
+  </si>
+  <si>
+    <t>Images\Start date.PNG</t>
+  </si>
+  <si>
+    <t>Images\Date of Assessment Screening.PNG</t>
+  </si>
+  <si>
+    <t>Images\Completion date.PNG</t>
+  </si>
+  <si>
+    <t>Images\Completion Status.PNG</t>
+  </si>
+  <si>
+    <t>Images\Priority for assessment.PNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2269,6 +2281,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2326,7 +2345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2394,6 +2413,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2737,7 +2762,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B34" sqref="B34"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:D1"/>
+      <selection pane="topRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -14409,90 +14434,232 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7144007-A771-4314-B0C0-896501F5183D}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99.90625" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="34"/>
+    <col min="1" max="1" width="8.7265625" style="34"/>
+    <col min="2" max="2" width="20.7265625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="99.90625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>713</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="F1" s="34" t="s">
+        <v>715</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>717</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="I1" s="34" t="s">
         <v>718</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="J1" s="34" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>719</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="F2" s="34">
+        <v>-7</v>
+      </c>
+      <c r="G2" s="34">
+        <v>36</v>
+      </c>
+      <c r="H2" s="34">
+        <v>163</v>
+      </c>
+      <c r="I2" s="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>714</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>720</v>
       </c>
-      <c r="H1" s="34" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="F3" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G3" s="34">
+        <v>37</v>
+      </c>
+      <c r="H3" s="34">
+        <v>103</v>
+      </c>
+      <c r="I3" s="34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>715</v>
-      </c>
-      <c r="D2" s="34">
-        <v>-15</v>
-      </c>
-      <c r="E2" s="34">
-        <v>40</v>
-      </c>
-      <c r="F2" s="34">
-        <v>200</v>
-      </c>
-      <c r="G2" s="34">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="34" t="s">
-        <v>714</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>716</v>
-      </c>
-      <c r="D3" s="34">
-        <v>-5</v>
-      </c>
-      <c r="E3" s="34">
-        <v>40</v>
-      </c>
-      <c r="F3" s="34">
-        <v>130</v>
-      </c>
-      <c r="G3" s="34">
-        <v>40</v>
-      </c>
+      <c r="C4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="F4" s="34">
+        <v>-4</v>
+      </c>
+      <c r="G4" s="34">
+        <v>42</v>
+      </c>
+      <c r="H4" s="34">
+        <v>142</v>
+      </c>
+      <c r="I4" s="34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>722</v>
+      </c>
+      <c r="F5" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G5" s="34">
+        <v>38</v>
+      </c>
+      <c r="H5" s="34">
+        <v>104</v>
+      </c>
+      <c r="I5" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>724</v>
+      </c>
+      <c r="F6" s="34">
+        <v>9</v>
+      </c>
+      <c r="G6" s="34">
+        <v>21</v>
+      </c>
+      <c r="H6" s="34">
+        <v>182</v>
+      </c>
+      <c r="I6" s="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>723</v>
+      </c>
+      <c r="F7" s="34">
+        <v>11</v>
+      </c>
+      <c r="G7" s="34">
+        <v>22</v>
+      </c>
+      <c r="H7" s="34">
+        <v>212</v>
+      </c>
+      <c r="I7" s="34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D8" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Extraction_Config.xlsx
+++ b/Extraction_Config.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleConfig" sheetId="1" r:id="rId1"/>
     <sheet name="HardPart" sheetId="4" r:id="rId2"/>
-    <sheet name="ExceptionChkBox" sheetId="2" r:id="rId3"/>
-    <sheet name="CurrentApprovals" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="ExceptionChkBox" sheetId="2" r:id="rId4"/>
+    <sheet name="CurrentApprovals" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SampleConfig!$A$1:$K$726</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="764">
   <si>
     <t>Domain</t>
   </si>
@@ -2186,29 +2187,146 @@
     <t>Height</t>
   </si>
   <si>
-    <t>Images\Date on which referral received.PNG</t>
-  </si>
-  <si>
-    <t>Images\Start date.PNG</t>
-  </si>
-  <si>
-    <t>Images\Date of Assessment Screening.PNG</t>
-  </si>
-  <si>
-    <t>Images\Completion date.PNG</t>
-  </si>
-  <si>
-    <t>Images\Completion Status.PNG</t>
-  </si>
-  <si>
-    <t>Images\Priority for assessment.PNG</t>
+    <t>Images\Event Details - Section 1\Date on which referral received.PNG</t>
+  </si>
+  <si>
+    <t>Images\Event Details - Section 1\Start date.PNG</t>
+  </si>
+  <si>
+    <t>Images\Event Details - Section 1\Date of Assessment Screening.PNG</t>
+  </si>
+  <si>
+    <t>Images\Event Details - Section 1\Completion date.PNG</t>
+  </si>
+  <si>
+    <t>Images\Event Details - Section 1\Priority for assessment.PNG</t>
+  </si>
+  <si>
+    <t>Images\Event Details - Section 1\Completion Status.PNG</t>
+  </si>
+  <si>
+    <t>Images\Referral\Referrer Name.png</t>
+  </si>
+  <si>
+    <t>Images\Referral\Referring organisation.png</t>
+  </si>
+  <si>
+    <t>Images\Referral\Unit no Street number.png</t>
+  </si>
+  <si>
+    <t>Images\Referral\Street line 1.png</t>
+  </si>
+  <si>
+    <t>Images\Referral\Street line 2.png</t>
+  </si>
+  <si>
+    <t>Images\Referral\Suburb.png</t>
+  </si>
+  <si>
+    <t>Images\Referral\State Territory.png</t>
+  </si>
+  <si>
+    <t>Images\Referral\Postcode.png</t>
+  </si>
+  <si>
+    <t>Images\Referral\Country.png</t>
+  </si>
+  <si>
+    <t>Images\Registration\Title.png</t>
+  </si>
+  <si>
+    <t>Images\Registration\Given Name.png</t>
+  </si>
+  <si>
+    <t>Images\Registration\Middle Name.png</t>
+  </si>
+  <si>
+    <t>Images\Registration\Surname.png</t>
+  </si>
+  <si>
+    <t>Images\Referral\Address Type.png</t>
+  </si>
+  <si>
+    <t>Images\Registration\Date of Birth.png</t>
+  </si>
+  <si>
+    <t>Images\Registration\Age (auto-generated from DoB).png</t>
+  </si>
+  <si>
+    <t>Images\Client Demographics\Country of Birth.png</t>
+  </si>
+  <si>
+    <t>Images\Client Demographics\Preferred Language.png</t>
+  </si>
+  <si>
+    <t>Images\Client Demographics\Ethnicity.png</t>
+  </si>
+  <si>
+    <t>Images\Client Demographics\DVA Entitlement.png</t>
+  </si>
+  <si>
+    <t>Images\Client Demographics\Who do you live with.png</t>
+  </si>
+  <si>
+    <t>Images\Client Demographics\Type of accommodation.png</t>
+  </si>
+  <si>
+    <t>Images\Client Demographics\Marital Status.png</t>
+  </si>
+  <si>
+    <t>Images\Client Demographics\Gender.png</t>
+  </si>
+  <si>
+    <t>Images\Client Demographics\Do you identify as being Aboriginal and or Torres Strait Islander.png</t>
+  </si>
+  <si>
+    <t>Images\Client Demographics\Are you a veteran or war widow widower.png</t>
+  </si>
+  <si>
+    <t>PHYSICAL DOMAIN</t>
+  </si>
+  <si>
+    <t>Images\Function\Can the client get to places outside of walking distance.png</t>
+  </si>
+  <si>
+    <t>Images\Function\Can the client go shopping for groceries or clothes (assuming client transportation).png</t>
+  </si>
+  <si>
+    <t>Images\Function\Can the client prepare their own meals.png</t>
+  </si>
+  <si>
+    <t>Images\Function\Can the client do housework.png</t>
+  </si>
+  <si>
+    <t>Images\Function\Can the client take their own medicine.png</t>
+  </si>
+  <si>
+    <t>Images\Function\Can the client handle their own money.png</t>
+  </si>
+  <si>
+    <t>Images\Function\Can the client walk.png</t>
+  </si>
+  <si>
+    <t>Images\Function\Can the client take a bath or shower.png</t>
+  </si>
+  <si>
+    <t>Images\Function\Dressing.png</t>
+  </si>
+  <si>
+    <t>Images\Function\Eating.png</t>
+  </si>
+  <si>
+    <t>Images\Function\Transfers.png</t>
+  </si>
+  <si>
+    <t>Images\Function\Toilet Use.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2281,13 +2399,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2345,7 +2456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2415,9 +2526,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2762,25 +2870,25 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B34" sqref="B34"/>
-      <selection pane="topRight" activeCell="C35" sqref="C35"/>
+      <selection pane="topRight" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.54296875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="10" customWidth="1"/>
     <col min="2" max="2" width="30" style="10" customWidth="1"/>
-    <col min="3" max="3" width="45.90625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="28.6328125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="29.36328125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="30.6328125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="9" customWidth="1"/>
     <col min="9" max="9" width="15" style="9" customWidth="1"/>
-    <col min="10" max="10" width="1.36328125" style="10" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="10"/>
+    <col min="10" max="10" width="1.42578125" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +2920,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -2841,7 +2949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
@@ -2864,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
@@ -2887,7 +2995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
@@ -2910,7 +3018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
@@ -2933,7 +3041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
@@ -2956,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
@@ -2980,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="14" t="s">
         <v>586</v>
       </c>
@@ -3003,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
@@ -3028,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
@@ -3053,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
@@ -3078,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
@@ -3102,7 +3210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
@@ -3130,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="15" t="s">
         <v>32</v>
       </c>
@@ -3155,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" s="15" t="s">
         <v>33</v>
       </c>
@@ -3180,7 +3288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C17" s="15" t="s">
         <v>34</v>
       </c>
@@ -3203,7 +3311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C18" s="15" t="s">
         <v>35</v>
       </c>
@@ -3226,7 +3334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C19" s="16" t="s">
         <v>36</v>
       </c>
@@ -3250,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C20" s="15" t="s">
         <v>37</v>
       </c>
@@ -3273,7 +3381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C21" s="15" t="s">
         <v>38</v>
       </c>
@@ -3296,7 +3404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C22" s="15" t="s">
         <v>39</v>
       </c>
@@ -3319,7 +3427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C23" s="15" t="s">
         <v>40</v>
       </c>
@@ -3342,7 +3450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C24" s="15" t="s">
         <v>41</v>
       </c>
@@ -3365,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C25" s="15" t="s">
         <v>42</v>
       </c>
@@ -3388,7 +3496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C26" s="15" t="s">
         <v>43</v>
       </c>
@@ -3411,7 +3519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C27" s="15" t="s">
         <v>44</v>
       </c>
@@ -3434,7 +3542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="10" t="s">
         <v>45</v>
       </c>
@@ -3462,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C29" s="10" t="s">
         <v>47</v>
       </c>
@@ -3486,7 +3594,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
         <v>592</v>
       </c>
@@ -3514,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C31" s="10" t="s">
         <v>594</v>
       </c>
@@ -3538,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
@@ -3565,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C33" s="10" t="s">
         <v>50</v>
       </c>
@@ -3589,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
         <v>51</v>
       </c>
@@ -3617,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C35" s="10" t="s">
         <v>53</v>
       </c>
@@ -3641,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="10" t="s">
         <v>54</v>
       </c>
@@ -3669,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C37" s="10" t="s">
         <v>56</v>
       </c>
@@ -3693,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B38" s="10" t="s">
         <v>57</v>
       </c>
@@ -3720,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C39" s="10" t="s">
         <v>59</v>
       </c>
@@ -3744,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B40" s="10" t="s">
         <v>64</v>
       </c>
@@ -3772,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C41" s="10" t="s">
         <v>66</v>
       </c>
@@ -3797,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C42" s="10" t="s">
         <v>67</v>
       </c>
@@ -3822,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C43" s="10" t="s">
         <v>68</v>
       </c>
@@ -3847,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C44" s="10" t="s">
         <v>69</v>
       </c>
@@ -3872,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C45" s="10" t="s">
         <v>70</v>
       </c>
@@ -3896,7 +4004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C46" s="17" t="s">
         <v>71</v>
       </c>
@@ -3919,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B47" s="10" t="s">
         <v>72</v>
       </c>
@@ -3945,7 +4053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C48" s="10" t="s">
         <v>120</v>
       </c>
@@ -3968,7 +4076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C49" s="10" t="s">
         <v>121</v>
       </c>
@@ -3991,7 +4099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C50" s="10" t="s">
         <v>122</v>
       </c>
@@ -4014,7 +4122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C51" s="10" t="s">
         <v>73</v>
       </c>
@@ -4039,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C52" s="10" t="s">
         <v>123</v>
       </c>
@@ -4062,7 +4170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C53" s="10" t="s">
         <v>124</v>
       </c>
@@ -4085,7 +4193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C54" s="10" t="s">
         <v>125</v>
       </c>
@@ -4111,7 +4219,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C55" s="10" t="s">
         <v>74</v>
       </c>
@@ -4139,7 +4247,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C56" s="10" t="s">
         <v>75</v>
       </c>
@@ -4167,7 +4275,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C57" s="10" t="s">
         <v>76</v>
       </c>
@@ -4192,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C58" s="10" t="s">
         <v>77</v>
       </c>
@@ -4220,7 +4328,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C59" s="10" t="s">
         <v>78</v>
       </c>
@@ -4248,7 +4356,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C60" s="10" t="s">
         <v>79</v>
       </c>
@@ -4276,7 +4384,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C61" s="10" t="s">
         <v>80</v>
       </c>
@@ -4301,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C62" s="10" t="s">
         <v>81</v>
       </c>
@@ -4326,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C63" s="10" t="s">
         <v>82</v>
       </c>
@@ -4351,7 +4459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C64" s="10" t="s">
         <v>140</v>
       </c>
@@ -4359,7 +4467,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="10" t="s">
         <v>83</v>
       </c>
@@ -4379,7 +4487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C66" s="10" t="s">
         <v>128</v>
       </c>
@@ -4396,7 +4504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C67" s="10" t="s">
         <v>129</v>
       </c>
@@ -4413,7 +4521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C68" s="10" t="s">
         <v>130</v>
       </c>
@@ -4430,7 +4538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C69" s="10" t="s">
         <v>141</v>
       </c>
@@ -4447,7 +4555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C70" s="10" t="s">
         <v>142</v>
       </c>
@@ -4464,7 +4572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C71" s="10" t="s">
         <v>131</v>
       </c>
@@ -4481,7 +4589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C72" s="10" t="s">
         <v>132</v>
       </c>
@@ -4498,7 +4606,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C73" s="10" t="s">
         <v>133</v>
       </c>
@@ -4515,7 +4623,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C74" s="10" t="s">
         <v>134</v>
       </c>
@@ -4532,7 +4640,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C75" s="10" t="s">
         <v>84</v>
       </c>
@@ -4553,7 +4661,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="10" t="s">
         <v>85</v>
       </c>
@@ -4576,7 +4684,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C77" s="15" t="s">
         <v>143</v>
       </c>
@@ -4596,7 +4704,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C78" s="15" t="s">
         <v>86</v>
       </c>
@@ -4610,7 +4718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C79" s="15" t="s">
         <v>87</v>
       </c>
@@ -4624,7 +4732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C80" s="15" t="s">
         <v>88</v>
       </c>
@@ -4638,7 +4746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C81" s="10" t="s">
         <v>89</v>
       </c>
@@ -4657,7 +4765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C82" s="10" t="s">
         <v>90</v>
       </c>
@@ -4675,7 +4783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="10" t="s">
         <v>135</v>
       </c>
@@ -4684,7 +4792,7 @@
       </c>
       <c r="H83" s="12"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
         <v>144</v>
       </c>
@@ -4693,7 +4801,7 @@
       </c>
       <c r="H84" s="12"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="10" t="s">
         <v>136</v>
       </c>
@@ -4710,7 +4818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C86" s="10" t="s">
         <v>120</v>
       </c>
@@ -4724,7 +4832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C87" s="10" t="s">
         <v>76</v>
       </c>
@@ -4743,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C88" s="10" t="s">
         <v>77</v>
       </c>
@@ -4762,7 +4870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C89" s="10" t="s">
         <v>78</v>
       </c>
@@ -4781,7 +4889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C90" s="10" t="s">
         <v>79</v>
       </c>
@@ -4803,7 +4911,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C91" s="10" t="s">
         <v>80</v>
       </c>
@@ -4825,7 +4933,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C92" s="10" t="s">
         <v>81</v>
       </c>
@@ -4844,7 +4952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C93" s="10" t="s">
         <v>82</v>
       </c>
@@ -4863,7 +4971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C94" s="10" t="s">
         <v>140</v>
       </c>
@@ -4871,7 +4979,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="10" t="s">
         <v>145</v>
       </c>
@@ -4883,7 +4991,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="10" t="s">
         <v>137</v>
       </c>
@@ -4895,7 +5003,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B97" s="10" t="s">
         <v>91</v>
       </c>
@@ -4916,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B98" s="10" t="s">
         <v>93</v>
       </c>
@@ -4937,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C99" s="10" t="s">
         <v>95</v>
       </c>
@@ -4955,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C100" s="10" t="s">
         <v>96</v>
       </c>
@@ -4974,7 +5082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C101" s="10" t="s">
         <v>97</v>
       </c>
@@ -4993,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C102" s="10" t="s">
         <v>98</v>
       </c>
@@ -5015,7 +5123,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C103" s="10" t="s">
         <v>99</v>
       </c>
@@ -5037,7 +5145,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C104" s="10" t="s">
         <v>100</v>
       </c>
@@ -5059,7 +5167,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C105" s="10" t="s">
         <v>101</v>
       </c>
@@ -5081,7 +5189,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C106" s="10" t="s">
         <v>102</v>
       </c>
@@ -5103,7 +5211,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C107" s="10" t="s">
         <v>103</v>
       </c>
@@ -5125,7 +5233,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C108" s="10" t="s">
         <v>613</v>
       </c>
@@ -5144,7 +5252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C109" s="10" t="s">
         <v>69</v>
       </c>
@@ -5162,7 +5270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C110" s="10" t="s">
         <v>138</v>
       </c>
@@ -5179,7 +5287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C111" s="10" t="s">
         <v>69</v>
       </c>
@@ -5197,7 +5305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C112" s="10" t="s">
         <v>117</v>
       </c>
@@ -5214,7 +5322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C113" s="10" t="s">
         <v>139</v>
       </c>
@@ -5232,7 +5340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C114" s="10" t="s">
         <v>70</v>
       </c>
@@ -5250,7 +5358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C115" s="10" t="s">
         <v>104</v>
       </c>
@@ -5269,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C116" s="10" t="s">
         <v>105</v>
       </c>
@@ -5288,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:11" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="19"/>
       <c r="C117" s="19" t="s">
         <v>106</v>
@@ -5309,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="10" t="s">
         <v>147</v>
       </c>
@@ -5330,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C119" s="10" t="s">
         <v>148</v>
       </c>
@@ -5348,7 +5456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C120" s="10" t="s">
         <v>210</v>
       </c>
@@ -5356,7 +5464,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C121" s="10" t="s">
         <v>108</v>
       </c>
@@ -5367,7 +5475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C122" s="10" t="s">
         <v>109</v>
       </c>
@@ -5378,7 +5486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C123" s="10" t="s">
         <v>110</v>
       </c>
@@ -5392,7 +5500,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C124" s="10" t="s">
         <v>111</v>
       </c>
@@ -5406,7 +5514,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C125" s="10" t="s">
         <v>112</v>
       </c>
@@ -5420,7 +5528,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C126" s="10" t="s">
         <v>113</v>
       </c>
@@ -5434,7 +5542,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C127" s="10" t="s">
         <v>114</v>
       </c>
@@ -5448,7 +5556,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C128" s="10" t="s">
         <v>149</v>
       </c>
@@ -5462,7 +5570,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C129" s="10" t="s">
         <v>115</v>
       </c>
@@ -5473,7 +5581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C130" s="10" t="s">
         <v>116</v>
       </c>
@@ -5484,7 +5592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="19"/>
       <c r="C131" s="10" t="s">
         <v>117</v>
@@ -5496,7 +5604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
         <v>146</v>
       </c>
@@ -5510,7 +5618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C133" s="10" t="s">
         <v>151</v>
       </c>
@@ -5521,7 +5629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C134" s="10" t="s">
         <v>118</v>
       </c>
@@ -5532,7 +5640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C135" s="10" t="s">
         <v>70</v>
       </c>
@@ -5546,7 +5654,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C136" s="17" t="s">
         <v>71</v>
       </c>
@@ -5563,7 +5671,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B137" s="10" t="s">
         <v>152</v>
       </c>
@@ -5580,7 +5688,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C138" s="10" t="s">
         <v>155</v>
       </c>
@@ -5594,7 +5702,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C139" s="10" t="s">
         <v>156</v>
       </c>
@@ -5608,7 +5716,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C140" s="10" t="s">
         <v>211</v>
       </c>
@@ -5630,7 +5738,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C141" s="10" t="s">
         <v>157</v>
       </c>
@@ -5652,7 +5760,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C142" s="10" t="s">
         <v>158</v>
       </c>
@@ -5673,7 +5781,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C143" s="10" t="s">
         <v>159</v>
       </c>
@@ -5693,7 +5801,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C144" s="10" t="s">
         <v>160</v>
       </c>
@@ -5713,7 +5821,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C145" s="10" t="s">
         <v>161</v>
       </c>
@@ -5733,7 +5841,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C146" s="10" t="s">
         <v>162</v>
       </c>
@@ -5753,7 +5861,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C147" s="10" t="s">
         <v>117</v>
       </c>
@@ -5767,7 +5875,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C148" s="10" t="s">
         <v>618</v>
       </c>
@@ -5781,7 +5889,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C149" s="10" t="s">
         <v>118</v>
       </c>
@@ -5795,7 +5903,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C150" s="10" t="s">
         <v>70</v>
       </c>
@@ -5809,7 +5917,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C151" s="10" t="s">
         <v>163</v>
       </c>
@@ -5830,7 +5938,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C152" s="10" t="s">
         <v>164</v>
       </c>
@@ -5851,7 +5959,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C153" s="10" t="s">
         <v>212</v>
       </c>
@@ -5866,7 +5974,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B154" s="10" t="s">
         <v>165</v>
       </c>
@@ -5888,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C155" s="10" t="s">
         <v>167</v>
       </c>
@@ -5907,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C156" s="10" t="s">
         <v>168</v>
       </c>
@@ -5926,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C157" s="10" t="s">
         <v>169</v>
       </c>
@@ -5934,7 +6042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C158" s="10" t="s">
         <v>123</v>
       </c>
@@ -5942,7 +6050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C159" s="10" t="s">
         <v>170</v>
       </c>
@@ -5950,7 +6058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C160" s="10" t="s">
         <v>171</v>
       </c>
@@ -5958,7 +6066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B161" s="10" t="s">
         <v>213</v>
       </c>
@@ -5983,7 +6091,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C162" s="10" t="s">
         <v>623</v>
       </c>
@@ -6003,7 +6111,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C163" s="10" t="s">
         <v>69</v>
       </c>
@@ -6025,7 +6133,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C164" s="10" t="s">
         <v>214</v>
       </c>
@@ -6046,7 +6154,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C165" s="10" t="s">
         <v>173</v>
       </c>
@@ -6064,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C166" s="10" t="s">
         <v>195</v>
       </c>
@@ -6072,7 +6180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C167" s="10" t="s">
         <v>174</v>
       </c>
@@ -6083,7 +6191,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C168" s="10" t="s">
         <v>192</v>
       </c>
@@ -6099,7 +6207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C169" s="10" t="s">
         <v>175</v>
       </c>
@@ -6114,7 +6222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C170" s="10" t="s">
         <v>176</v>
       </c>
@@ -6129,7 +6237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C171" s="10" t="s">
         <v>177</v>
       </c>
@@ -6148,7 +6256,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C172" s="10" t="s">
         <v>178</v>
       </c>
@@ -6167,7 +6275,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C173" s="10" t="s">
         <v>117</v>
       </c>
@@ -6178,7 +6286,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C174" s="10" t="s">
         <v>179</v>
       </c>
@@ -6197,7 +6305,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C175" s="10" t="s">
         <v>180</v>
       </c>
@@ -6213,7 +6321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C176" s="10" t="s">
         <v>197</v>
       </c>
@@ -6230,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C177" s="10" t="s">
         <v>181</v>
       </c>
@@ -6249,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C178" s="10" t="s">
         <v>182</v>
       </c>
@@ -6257,7 +6365,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C179" s="10" t="s">
         <v>71</v>
       </c>
@@ -6265,7 +6373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B180" s="10" t="s">
         <v>183</v>
       </c>
@@ -6279,7 +6387,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C181" s="10" t="s">
         <v>185</v>
       </c>
@@ -6290,7 +6398,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C182" s="10" t="s">
         <v>186</v>
       </c>
@@ -6301,7 +6409,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C183" s="10" t="s">
         <v>187</v>
       </c>
@@ -6312,7 +6420,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C184" s="10" t="s">
         <v>188</v>
       </c>
@@ -6323,7 +6431,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C185" s="10" t="s">
         <v>189</v>
       </c>
@@ -6334,7 +6442,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C186" s="10" t="s">
         <v>190</v>
       </c>
@@ -6345,7 +6453,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C187" s="10" t="s">
         <v>191</v>
       </c>
@@ -6356,7 +6464,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C188" s="10" t="s">
         <v>215</v>
       </c>
@@ -6367,7 +6475,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C189" s="10" t="s">
         <v>173</v>
       </c>
@@ -6378,7 +6486,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C190" s="10" t="s">
         <v>195</v>
       </c>
@@ -6386,7 +6494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C191" s="10" t="s">
         <v>174</v>
       </c>
@@ -6394,7 +6502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C192" s="10" t="s">
         <v>192</v>
       </c>
@@ -6405,7 +6513,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C193" s="10" t="s">
         <v>193</v>
       </c>
@@ -6416,7 +6524,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C194" s="10" t="s">
         <v>176</v>
       </c>
@@ -6427,7 +6535,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C195" s="10" t="s">
         <v>177</v>
       </c>
@@ -6438,7 +6546,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C196" s="10" t="s">
         <v>194</v>
       </c>
@@ -6449,7 +6557,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B197" s="10" t="s">
         <v>196</v>
       </c>
@@ -6463,7 +6571,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C198" s="10" t="s">
         <v>180</v>
       </c>
@@ -6474,7 +6582,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C199" s="10" t="s">
         <v>197</v>
       </c>
@@ -6495,7 +6603,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C200" s="10" t="s">
         <v>198</v>
       </c>
@@ -6517,7 +6625,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C201" s="10" t="s">
         <v>182</v>
       </c>
@@ -6528,7 +6636,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C202" s="10" t="s">
         <v>84</v>
       </c>
@@ -6539,7 +6647,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B203" s="10" t="s">
         <v>199</v>
       </c>
@@ -6553,7 +6661,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C204" s="10" t="s">
         <v>185</v>
       </c>
@@ -6564,7 +6672,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C205" s="10" t="s">
         <v>186</v>
       </c>
@@ -6575,7 +6683,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C206" s="10" t="s">
         <v>215</v>
       </c>
@@ -6586,7 +6694,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C207" s="10" t="s">
         <v>173</v>
       </c>
@@ -6597,7 +6705,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C208" s="10" t="s">
         <v>195</v>
       </c>
@@ -6608,7 +6716,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C209" s="10" t="s">
         <v>174</v>
       </c>
@@ -6619,7 +6727,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C210" s="10" t="s">
         <v>192</v>
       </c>
@@ -6630,7 +6738,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C211" s="10" t="s">
         <v>193</v>
       </c>
@@ -6641,7 +6749,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C212" s="10" t="s">
         <v>176</v>
       </c>
@@ -6652,7 +6760,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C213" s="10" t="s">
         <v>177</v>
       </c>
@@ -6660,7 +6768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C214" s="10" t="s">
         <v>194</v>
       </c>
@@ -6668,7 +6776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C215" s="10" t="s">
         <v>117</v>
       </c>
@@ -6679,7 +6787,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C216" s="10" t="s">
         <v>200</v>
       </c>
@@ -6690,7 +6798,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C217" s="10" t="s">
         <v>201</v>
       </c>
@@ -6701,7 +6809,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C218" s="10" t="s">
         <v>202</v>
       </c>
@@ -6712,7 +6820,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C219" s="10" t="s">
         <v>203</v>
       </c>
@@ -6723,7 +6831,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C220" s="10" t="s">
         <v>204</v>
       </c>
@@ -6734,7 +6842,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B221" s="10" t="s">
         <v>205</v>
       </c>
@@ -6757,7 +6865,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C222" s="10" t="s">
         <v>688</v>
       </c>
@@ -6774,7 +6882,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C223" s="10" t="s">
         <v>689</v>
       </c>
@@ -6795,7 +6903,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C224" s="10" t="s">
         <v>208</v>
       </c>
@@ -6817,7 +6925,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C225" s="10" t="s">
         <v>209</v>
       </c>
@@ -6837,7 +6945,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B226" s="19"/>
       <c r="C226" s="19" t="s">
         <v>216</v>
@@ -6856,7 +6964,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B227" s="10" t="s">
         <v>218</v>
       </c>
@@ -6880,7 +6988,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C228" s="24" t="s">
         <v>219</v>
       </c>
@@ -6902,7 +7010,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C229" s="27" t="s">
         <v>220</v>
       </c>
@@ -6914,7 +7022,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C230" s="27" t="s">
         <v>221</v>
       </c>
@@ -6926,7 +7034,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C231" s="27" t="s">
         <v>222</v>
       </c>
@@ -6938,7 +7046,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C232" s="27" t="s">
         <v>223</v>
       </c>
@@ -6950,7 +7058,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C233" s="27" t="s">
         <v>220</v>
       </c>
@@ -6962,7 +7070,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C234" s="27" t="s">
         <v>221</v>
       </c>
@@ -6974,7 +7082,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C235" s="27" t="s">
         <v>222</v>
       </c>
@@ -6983,7 +7091,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C236" s="27" t="s">
         <v>223</v>
       </c>
@@ -6995,7 +7103,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C237" s="27" t="s">
         <v>220</v>
       </c>
@@ -7004,7 +7112,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C238" s="27" t="s">
         <v>221</v>
       </c>
@@ -7013,7 +7121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C239" s="27" t="s">
         <v>222</v>
       </c>
@@ -7022,7 +7130,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="19"/>
       <c r="C240" s="27" t="s">
         <v>223</v>
@@ -7035,7 +7143,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="10" t="s">
         <v>217</v>
       </c>
@@ -7047,7 +7155,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C242" s="27" t="s">
         <v>221</v>
       </c>
@@ -7056,7 +7164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C243" s="27" t="s">
         <v>222</v>
       </c>
@@ -7065,7 +7173,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C244" s="27" t="s">
         <v>223</v>
       </c>
@@ -7074,7 +7182,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C245" s="27" t="s">
         <v>220</v>
       </c>
@@ -7083,7 +7191,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C246" s="27" t="s">
         <v>221</v>
       </c>
@@ -7092,7 +7200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C247" s="27" t="s">
         <v>222</v>
       </c>
@@ -7101,7 +7209,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C248" s="27" t="s">
         <v>223</v>
       </c>
@@ -7110,7 +7218,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C249" s="27" t="s">
         <v>220</v>
       </c>
@@ -7119,7 +7227,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C250" s="27" t="s">
         <v>221</v>
       </c>
@@ -7128,7 +7236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C251" s="27" t="s">
         <v>222</v>
       </c>
@@ -7137,7 +7245,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C252" s="27" t="s">
         <v>223</v>
       </c>
@@ -7146,7 +7254,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C253" s="27" t="s">
         <v>220</v>
       </c>
@@ -7155,7 +7263,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C254" s="27" t="s">
         <v>221</v>
       </c>
@@ -7164,7 +7272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C255" s="27" t="s">
         <v>222</v>
       </c>
@@ -7173,7 +7281,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C256" s="27" t="s">
         <v>223</v>
       </c>
@@ -7182,7 +7290,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C257" s="24" t="s">
         <v>224</v>
       </c>
@@ -7202,7 +7310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C258" s="24" t="s">
         <v>222</v>
       </c>
@@ -7211,7 +7319,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C259" s="24" t="s">
         <v>634</v>
       </c>
@@ -7230,7 +7338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C260" s="10" t="s">
         <v>225</v>
       </c>
@@ -7247,7 +7355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C261" s="10" t="s">
         <v>69</v>
       </c>
@@ -7255,7 +7363,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C262" s="10" t="s">
         <v>226</v>
       </c>
@@ -7273,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C263" s="10" t="s">
         <v>69</v>
       </c>
@@ -7281,7 +7389,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C264" s="10" t="s">
         <v>227</v>
       </c>
@@ -7289,7 +7397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C265" s="10" t="s">
         <v>228</v>
       </c>
@@ -7308,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C266" s="10" t="s">
         <v>229</v>
       </c>
@@ -7327,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C267" s="10" t="s">
         <v>230</v>
       </c>
@@ -7346,7 +7454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C268" s="10" t="s">
         <v>231</v>
       </c>
@@ -7365,7 +7473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B269" s="10" t="s">
         <v>232</v>
       </c>
@@ -7387,7 +7495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C270" s="10" t="s">
         <v>234</v>
       </c>
@@ -7406,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B271" s="10" t="s">
         <v>235</v>
       </c>
@@ -7428,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C272" s="10" t="s">
         <v>237</v>
       </c>
@@ -7450,7 +7558,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B273" s="10" t="s">
         <v>238</v>
       </c>
@@ -7472,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C274" s="10" t="s">
         <v>240</v>
       </c>
@@ -7491,7 +7599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C275" s="10" t="s">
         <v>241</v>
       </c>
@@ -7513,7 +7621,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C276" s="10" t="s">
         <v>242</v>
       </c>
@@ -7521,7 +7629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C277" s="10" t="s">
         <v>243</v>
       </c>
@@ -7543,7 +7651,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C278" s="10" t="s">
         <v>244</v>
       </c>
@@ -7565,7 +7673,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C279" s="10" t="s">
         <v>245</v>
       </c>
@@ -7584,7 +7692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C280" s="10" t="s">
         <v>246</v>
       </c>
@@ -7603,7 +7711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C281" s="10" t="s">
         <v>247</v>
       </c>
@@ -7620,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C282" s="10" t="s">
         <v>248</v>
       </c>
@@ -7628,7 +7736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B283" s="10" t="s">
         <v>249</v>
       </c>
@@ -7650,7 +7758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C284" s="10" t="s">
         <v>251</v>
       </c>
@@ -7669,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C285" s="10" t="s">
         <v>252</v>
       </c>
@@ -7688,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C286" s="10" t="s">
         <v>253</v>
       </c>
@@ -7707,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C287" s="10" t="s">
         <v>254</v>
       </c>
@@ -7726,7 +7834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C288" s="10" t="s">
         <v>255</v>
       </c>
@@ -7734,7 +7842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B289" s="10" t="s">
         <v>256</v>
       </c>
@@ -7756,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C290" s="10" t="s">
         <v>258</v>
       </c>
@@ -7778,7 +7886,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C291" s="10" t="s">
         <v>259</v>
       </c>
@@ -7797,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C292" s="10" t="s">
         <v>260</v>
       </c>
@@ -7815,7 +7923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B293" s="10" t="s">
         <v>261</v>
       </c>
@@ -7826,7 +7934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C294" s="10" t="s">
         <v>262</v>
       </c>
@@ -7844,7 +7952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B295" s="10" t="s">
         <v>263</v>
       </c>
@@ -7866,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C296" s="10" t="s">
         <v>265</v>
       </c>
@@ -7887,7 +7995,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C297" s="10" t="s">
         <v>69</v>
       </c>
@@ -7895,7 +8003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B298" s="10" t="s">
         <v>266</v>
       </c>
@@ -7916,7 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B299" s="10" t="s">
         <v>268</v>
       </c>
@@ -7927,7 +8035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C300" s="10" t="s">
         <v>270</v>
       </c>
@@ -7935,7 +8043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C301" s="10" t="s">
         <v>271</v>
       </c>
@@ -7943,7 +8051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C302" s="10" t="s">
         <v>272</v>
       </c>
@@ -7954,7 +8062,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C303" s="10" t="s">
         <v>273</v>
       </c>
@@ -7962,7 +8070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C304" s="10" t="s">
         <v>274</v>
       </c>
@@ -7981,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C305" s="10" t="s">
         <v>275</v>
       </c>
@@ -7989,7 +8097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B306" s="10" t="s">
         <v>276</v>
       </c>
@@ -8011,7 +8119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C307" s="10" t="s">
         <v>278</v>
       </c>
@@ -8033,7 +8141,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="308" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C308" s="10" t="s">
         <v>279</v>
       </c>
@@ -8052,7 +8160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C309" s="10" t="s">
         <v>280</v>
       </c>
@@ -8071,7 +8179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C310" s="10" t="s">
         <v>281</v>
       </c>
@@ -8090,7 +8198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C311" s="10" t="s">
         <v>282</v>
       </c>
@@ -8111,7 +8219,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="312" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B312" s="10" t="s">
         <v>283</v>
       </c>
@@ -8132,7 +8240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C313" s="10" t="s">
         <v>284</v>
       </c>
@@ -8149,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="2:11" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B314" s="19"/>
       <c r="C314" s="19" t="s">
         <v>204</v>
@@ -8163,7 +8271,7 @@
       </c>
       <c r="I314" s="22"/>
     </row>
-    <row r="315" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B315" s="10" t="s">
         <v>288</v>
       </c>
@@ -8184,7 +8292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C316" s="10" t="s">
         <v>290</v>
       </c>
@@ -8202,7 +8310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C317" s="10" t="s">
         <v>291</v>
       </c>
@@ -8220,7 +8328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C318" s="10" t="s">
         <v>292</v>
       </c>
@@ -8228,7 +8336,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="319" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C319" s="10" t="s">
         <v>294</v>
       </c>
@@ -8239,7 +8347,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="320" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C320" s="10" t="s">
         <v>295</v>
       </c>
@@ -8247,7 +8355,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C321" s="10" t="s">
         <v>296</v>
       </c>
@@ -8255,7 +8363,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C322" s="10" t="s">
         <v>297</v>
       </c>
@@ -8263,7 +8371,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C323" s="10" t="s">
         <v>117</v>
       </c>
@@ -8271,7 +8379,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C324" s="10" t="s">
         <v>69</v>
       </c>
@@ -8279,7 +8387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B325" s="10" t="s">
         <v>298</v>
       </c>
@@ -8301,7 +8409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C326" s="10" t="s">
         <v>300</v>
       </c>
@@ -8320,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C327" s="10" t="s">
         <v>301</v>
       </c>
@@ -8339,7 +8447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="19"/>
       <c r="B328" s="10" t="s">
         <v>302</v>
@@ -8354,7 +8462,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="10" t="s">
         <v>287</v>
       </c>
@@ -8375,7 +8483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C330" s="10" t="s">
         <v>305</v>
       </c>
@@ -8383,7 +8491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C331" s="10" t="s">
         <v>306</v>
       </c>
@@ -8391,7 +8499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C332" s="10" t="s">
         <v>307</v>
       </c>
@@ -8412,7 +8520,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C333" s="10" t="s">
         <v>308</v>
       </c>
@@ -8423,7 +8531,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C334" s="10" t="s">
         <v>309</v>
       </c>
@@ -8434,7 +8542,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C335" s="10" t="s">
         <v>310</v>
       </c>
@@ -8455,7 +8563,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C336" s="10" t="s">
         <v>311</v>
       </c>
@@ -8466,7 +8574,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="337" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B337" s="10" t="s">
         <v>312</v>
       </c>
@@ -8490,7 +8598,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="338" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C338" s="10" t="s">
         <v>356</v>
       </c>
@@ -8512,7 +8620,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="339" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C339" s="10" t="s">
         <v>313</v>
       </c>
@@ -8530,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B340" s="10" t="s">
         <v>314</v>
       </c>
@@ -8551,7 +8659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C341" s="10" t="s">
         <v>315</v>
       </c>
@@ -8570,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B342" s="10" t="s">
         <v>316</v>
       </c>
@@ -8595,7 +8703,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="343" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C343" s="10" t="s">
         <v>318</v>
       </c>
@@ -8613,7 +8721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C344" s="10" t="s">
         <v>69</v>
       </c>
@@ -8624,7 +8732,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="345" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C345" s="14" t="s">
         <v>358</v>
       </c>
@@ -8645,7 +8753,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="346" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C346" s="10" t="s">
         <v>319</v>
       </c>
@@ -8664,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C347" s="10" t="s">
         <v>320</v>
       </c>
@@ -8686,7 +8794,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="348" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B348" s="10" t="s">
         <v>321</v>
       </c>
@@ -8708,7 +8816,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="349" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C349" s="10" t="s">
         <v>323</v>
       </c>
@@ -8724,7 +8832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="350" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C350" s="10" t="s">
         <v>324</v>
       </c>
@@ -8746,7 +8854,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="351" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C351" s="10" t="s">
         <v>325</v>
       </c>
@@ -8765,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C352" s="10" t="s">
         <v>326</v>
       </c>
@@ -8784,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C353" s="10" t="s">
         <v>327</v>
       </c>
@@ -8802,7 +8910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B354" s="10" t="s">
         <v>328</v>
       </c>
@@ -8823,7 +8931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C355" s="10" t="s">
         <v>329</v>
       </c>
@@ -8842,7 +8950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C356" s="10" t="s">
         <v>330</v>
       </c>
@@ -8861,7 +8969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C357" s="10" t="s">
         <v>331</v>
       </c>
@@ -8880,7 +8988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C358" s="10" t="s">
         <v>332</v>
       </c>
@@ -8902,7 +9010,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="359" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C359" s="10" t="s">
         <v>333</v>
       </c>
@@ -8924,7 +9032,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="360" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C360" s="10" t="s">
         <v>334</v>
       </c>
@@ -8943,7 +9051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C361" s="10" t="s">
         <v>248</v>
       </c>
@@ -8951,7 +9059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="362" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B362" s="10" t="s">
         <v>335</v>
       </c>
@@ -8965,7 +9073,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="363" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C363" s="10" t="s">
         <v>342</v>
       </c>
@@ -8976,7 +9084,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="364" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B364" s="10" t="s">
         <v>337</v>
       </c>
@@ -8987,7 +9095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C365" s="10" t="s">
         <v>165</v>
       </c>
@@ -8995,7 +9103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C366" s="10" t="s">
         <v>339</v>
       </c>
@@ -9003,7 +9111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C367" s="10" t="s">
         <v>340</v>
       </c>
@@ -9011,7 +9119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C368" s="10" t="s">
         <v>341</v>
       </c>
@@ -9019,7 +9127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C369" s="10" t="s">
         <v>117</v>
       </c>
@@ -9027,7 +9135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C370" s="10" t="s">
         <v>90</v>
       </c>
@@ -9035,7 +9143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="371" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C371" s="10" t="s">
         <v>343</v>
       </c>
@@ -9043,7 +9151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="372" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C372" s="10" t="s">
         <v>344</v>
       </c>
@@ -9051,7 +9159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="373" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B373" s="10" t="s">
         <v>337</v>
       </c>
@@ -9062,7 +9170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C374" s="10" t="s">
         <v>165</v>
       </c>
@@ -9070,7 +9178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C375" s="10" t="s">
         <v>339</v>
       </c>
@@ -9081,7 +9189,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="376" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C376" s="10" t="s">
         <v>340</v>
       </c>
@@ -9092,7 +9200,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="377" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C377" s="10" t="s">
         <v>341</v>
       </c>
@@ -9103,7 +9211,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="378" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C378" s="10" t="s">
         <v>117</v>
       </c>
@@ -9114,7 +9222,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="379" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C379" s="10" t="s">
         <v>90</v>
       </c>
@@ -9125,7 +9233,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="380" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C380" s="10" t="s">
         <v>345</v>
       </c>
@@ -9136,7 +9244,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="381" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C381" s="10" t="s">
         <v>344</v>
       </c>
@@ -9147,7 +9255,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="382" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B382" s="10" t="s">
         <v>337</v>
       </c>
@@ -9161,7 +9269,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="383" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C383" s="10" t="s">
         <v>165</v>
       </c>
@@ -9172,7 +9280,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="384" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C384" s="10" t="s">
         <v>339</v>
       </c>
@@ -9183,7 +9291,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="385" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C385" s="10" t="s">
         <v>340</v>
       </c>
@@ -9194,7 +9302,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="386" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C386" s="10" t="s">
         <v>341</v>
       </c>
@@ -9205,7 +9313,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="387" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C387" s="10" t="s">
         <v>117</v>
       </c>
@@ -9216,7 +9324,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="388" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C388" s="10" t="s">
         <v>90</v>
       </c>
@@ -9227,7 +9335,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="389" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C389" s="10" t="s">
         <v>346</v>
       </c>
@@ -9238,7 +9346,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="390" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C390" s="10" t="s">
         <v>344</v>
       </c>
@@ -9249,7 +9357,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="391" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B391" s="10" t="s">
         <v>337</v>
       </c>
@@ -9263,7 +9371,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="392" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C392" s="10" t="s">
         <v>165</v>
       </c>
@@ -9274,7 +9382,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="393" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C393" s="10" t="s">
         <v>339</v>
       </c>
@@ -9285,7 +9393,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="394" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C394" s="10" t="s">
         <v>340</v>
       </c>
@@ -9296,7 +9404,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="395" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C395" s="10" t="s">
         <v>341</v>
       </c>
@@ -9307,7 +9415,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="396" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C396" s="10" t="s">
         <v>117</v>
       </c>
@@ -9318,7 +9426,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="397" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C397" s="10" t="s">
         <v>90</v>
       </c>
@@ -9329,7 +9437,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="398" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C398" s="10" t="s">
         <v>347</v>
       </c>
@@ -9340,7 +9448,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="399" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C399" s="10" t="s">
         <v>344</v>
       </c>
@@ -9351,7 +9459,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="400" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B400" s="10" t="s">
         <v>337</v>
       </c>
@@ -9365,7 +9473,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="401" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C401" s="10" t="s">
         <v>165</v>
       </c>
@@ -9376,7 +9484,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="402" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C402" s="10" t="s">
         <v>339</v>
       </c>
@@ -9387,7 +9495,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="403" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C403" s="10" t="s">
         <v>340</v>
       </c>
@@ -9398,7 +9506,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="404" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C404" s="10" t="s">
         <v>341</v>
       </c>
@@ -9409,7 +9517,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="405" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C405" s="10" t="s">
         <v>117</v>
       </c>
@@ -9420,7 +9528,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="406" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C406" s="10" t="s">
         <v>90</v>
       </c>
@@ -9431,7 +9539,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="407" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C407" s="10" t="s">
         <v>348</v>
       </c>
@@ -9442,7 +9550,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="408" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C408" s="10" t="s">
         <v>344</v>
       </c>
@@ -9453,7 +9561,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="409" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B409" s="10" t="s">
         <v>337</v>
       </c>
@@ -9467,7 +9575,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="410" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C410" s="10" t="s">
         <v>165</v>
       </c>
@@ -9478,7 +9586,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="411" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C411" s="10" t="s">
         <v>339</v>
       </c>
@@ -9489,7 +9597,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="412" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C412" s="10" t="s">
         <v>340</v>
       </c>
@@ -9500,7 +9608,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="413" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C413" s="10" t="s">
         <v>341</v>
       </c>
@@ -9511,7 +9619,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="414" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C414" s="10" t="s">
         <v>117</v>
       </c>
@@ -9522,7 +9630,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="415" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C415" s="10" t="s">
         <v>90</v>
       </c>
@@ -9533,7 +9641,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="416" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C416" s="10" t="s">
         <v>349</v>
       </c>
@@ -9544,7 +9652,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="417" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C417" s="10" t="s">
         <v>344</v>
       </c>
@@ -9555,7 +9663,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="418" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B418" s="10" t="s">
         <v>337</v>
       </c>
@@ -9569,7 +9677,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="419" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C419" s="10" t="s">
         <v>165</v>
       </c>
@@ -9580,7 +9688,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="420" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C420" s="10" t="s">
         <v>339</v>
       </c>
@@ -9591,7 +9699,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="421" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C421" s="10" t="s">
         <v>340</v>
       </c>
@@ -9602,7 +9710,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="422" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C422" s="10" t="s">
         <v>341</v>
       </c>
@@ -9613,7 +9721,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="423" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C423" s="10" t="s">
         <v>117</v>
       </c>
@@ -9624,7 +9732,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="424" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C424" s="10" t="s">
         <v>90</v>
       </c>
@@ -9635,7 +9743,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="425" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C425" s="10" t="s">
         <v>350</v>
       </c>
@@ -9646,7 +9754,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="426" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C426" s="10" t="s">
         <v>344</v>
       </c>
@@ -9657,7 +9765,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="427" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B427" s="10" t="s">
         <v>337</v>
       </c>
@@ -9671,7 +9779,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="428" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C428" s="10" t="s">
         <v>165</v>
       </c>
@@ -9682,7 +9790,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="429" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C429" s="10" t="s">
         <v>339</v>
       </c>
@@ -9693,7 +9801,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="430" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C430" s="10" t="s">
         <v>340</v>
       </c>
@@ -9704,7 +9812,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="431" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C431" s="10" t="s">
         <v>341</v>
       </c>
@@ -9715,7 +9823,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="432" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C432" s="10" t="s">
         <v>117</v>
       </c>
@@ -9726,7 +9834,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="433" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C433" s="10" t="s">
         <v>90</v>
       </c>
@@ -9737,7 +9845,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="434" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C434" s="10" t="s">
         <v>351</v>
       </c>
@@ -9748,7 +9856,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="435" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C435" s="10" t="s">
         <v>344</v>
       </c>
@@ -9759,7 +9867,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="436" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B436" s="10" t="s">
         <v>337</v>
       </c>
@@ -9773,7 +9881,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="437" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C437" s="10" t="s">
         <v>165</v>
       </c>
@@ -9784,7 +9892,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="438" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C438" s="10" t="s">
         <v>339</v>
       </c>
@@ -9795,7 +9903,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="439" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C439" s="10" t="s">
         <v>340</v>
       </c>
@@ -9806,7 +9914,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="440" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C440" s="10" t="s">
         <v>341</v>
       </c>
@@ -9817,7 +9925,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="441" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C441" s="10" t="s">
         <v>117</v>
       </c>
@@ -9828,7 +9936,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="442" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C442" s="10" t="s">
         <v>90</v>
       </c>
@@ -9839,7 +9947,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="443" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C443" s="10" t="s">
         <v>352</v>
       </c>
@@ -9850,7 +9958,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="444" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C444" s="10" t="s">
         <v>344</v>
       </c>
@@ -9861,7 +9969,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="445" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B445" s="10" t="s">
         <v>337</v>
       </c>
@@ -9875,7 +9983,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="446" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C446" s="10" t="s">
         <v>165</v>
       </c>
@@ -9886,7 +9994,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="447" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C447" s="10" t="s">
         <v>339</v>
       </c>
@@ -9897,7 +10005,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="448" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C448" s="10" t="s">
         <v>340</v>
       </c>
@@ -9908,7 +10016,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="449" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C449" s="10" t="s">
         <v>341</v>
       </c>
@@ -9919,7 +10027,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="450" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C450" s="10" t="s">
         <v>117</v>
       </c>
@@ -9930,7 +10038,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="451" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C451" s="10" t="s">
         <v>90</v>
       </c>
@@ -9941,7 +10049,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="452" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C452" s="10" t="s">
         <v>353</v>
       </c>
@@ -9952,7 +10060,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="453" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C453" s="10" t="s">
         <v>344</v>
       </c>
@@ -9963,7 +10071,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="454" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B454" s="10" t="s">
         <v>337</v>
       </c>
@@ -9977,7 +10085,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="455" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C455" s="10" t="s">
         <v>165</v>
       </c>
@@ -9988,7 +10096,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="456" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C456" s="10" t="s">
         <v>339</v>
       </c>
@@ -9999,7 +10107,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="457" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C457" s="10" t="s">
         <v>340</v>
       </c>
@@ -10010,7 +10118,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="458" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C458" s="10" t="s">
         <v>341</v>
       </c>
@@ -10021,7 +10129,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="459" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C459" s="10" t="s">
         <v>117</v>
       </c>
@@ -10032,7 +10140,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="460" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C460" s="10" t="s">
         <v>90</v>
       </c>
@@ -10043,7 +10151,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="461" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C461" s="10" t="s">
         <v>354</v>
       </c>
@@ -10054,7 +10162,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="462" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C462" s="10" t="s">
         <v>344</v>
       </c>
@@ -10065,7 +10173,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="463" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B463" s="10" t="s">
         <v>337</v>
       </c>
@@ -10079,7 +10187,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="464" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C464" s="10" t="s">
         <v>165</v>
       </c>
@@ -10090,7 +10198,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="465" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C465" s="10" t="s">
         <v>339</v>
       </c>
@@ -10101,7 +10209,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="466" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C466" s="10" t="s">
         <v>340</v>
       </c>
@@ -10112,7 +10220,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="467" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C467" s="10" t="s">
         <v>341</v>
       </c>
@@ -10123,7 +10231,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="468" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C468" s="10" t="s">
         <v>117</v>
       </c>
@@ -10134,7 +10242,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="469" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C469" s="10" t="s">
         <v>90</v>
       </c>
@@ -10145,7 +10253,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="470" spans="2:11" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B470" s="19"/>
       <c r="C470" s="19" t="s">
         <v>204</v>
@@ -10162,7 +10270,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="471" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B471" s="10" t="s">
         <v>361</v>
       </c>
@@ -10187,7 +10295,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="472" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C472" s="10" t="s">
         <v>363</v>
       </c>
@@ -10209,7 +10317,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="473" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C473" s="10" t="s">
         <v>364</v>
       </c>
@@ -10231,7 +10339,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="474" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C474" s="10" t="s">
         <v>365</v>
       </c>
@@ -10253,7 +10361,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="475" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C475" s="10" t="s">
         <v>366</v>
       </c>
@@ -10275,7 +10383,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="476" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C476" s="10" t="s">
         <v>690</v>
       </c>
@@ -10295,7 +10403,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="477" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C477" s="10" t="s">
         <v>691</v>
       </c>
@@ -10309,7 +10417,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="478" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C478" s="10" t="s">
         <v>692</v>
       </c>
@@ -10330,7 +10438,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="479" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C479" s="10" t="s">
         <v>69</v>
       </c>
@@ -10341,7 +10449,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="480" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C480" s="10" t="s">
         <v>370</v>
       </c>
@@ -10363,7 +10471,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C481" s="10" t="s">
         <v>371</v>
       </c>
@@ -10385,7 +10493,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C482" s="10" t="s">
         <v>372</v>
       </c>
@@ -10407,7 +10515,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C483" s="10" t="s">
         <v>373</v>
       </c>
@@ -10429,7 +10537,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A484" s="19"/>
       <c r="C484" s="10" t="s">
         <v>374</v>
@@ -10452,7 +10560,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485" s="10" t="s">
         <v>360</v>
       </c>
@@ -10474,7 +10582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C486" s="10" t="s">
         <v>376</v>
       </c>
@@ -10493,7 +10601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C487" s="10" t="s">
         <v>377</v>
       </c>
@@ -10507,7 +10615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C488" s="10" t="s">
         <v>378</v>
       </c>
@@ -10515,7 +10623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C489" s="10" t="s">
         <v>379</v>
       </c>
@@ -10533,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C490" s="10" t="s">
         <v>380</v>
       </c>
@@ -10552,7 +10660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C491" s="10" t="s">
         <v>381</v>
       </c>
@@ -10574,7 +10682,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C492" s="10" t="s">
         <v>382</v>
       </c>
@@ -10590,7 +10698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C493" s="10" t="s">
         <v>168</v>
       </c>
@@ -10609,7 +10717,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C494" s="10" t="s">
         <v>383</v>
       </c>
@@ -10628,7 +10736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C495" s="10" t="s">
         <v>382</v>
       </c>
@@ -10644,7 +10752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C496" s="10" t="s">
         <v>168</v>
       </c>
@@ -10660,7 +10768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="497" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C497" s="10" t="s">
         <v>693</v>
       </c>
@@ -10678,7 +10786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C498" s="10" t="s">
         <v>385</v>
       </c>
@@ -10686,7 +10794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="499" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B499" s="10" t="s">
         <v>386</v>
       </c>
@@ -10708,7 +10816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C500" s="10" t="s">
         <v>388</v>
       </c>
@@ -10727,7 +10835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C501" s="10" t="s">
         <v>389</v>
       </c>
@@ -10749,7 +10857,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="502" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C502" s="10" t="s">
         <v>390</v>
       </c>
@@ -10771,7 +10879,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="503" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C503" s="10" t="s">
         <v>391</v>
       </c>
@@ -10790,7 +10898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C504" s="10" t="s">
         <v>392</v>
       </c>
@@ -10809,7 +10917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C505" s="10" t="s">
         <v>393</v>
       </c>
@@ -10828,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C506" s="10" t="s">
         <v>394</v>
       </c>
@@ -10850,7 +10958,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="507" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C507" s="10" t="s">
         <v>395</v>
       </c>
@@ -10872,7 +10980,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="508" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C508" s="10" t="s">
         <v>204</v>
       </c>
@@ -10880,7 +10988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="509" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B509" s="10" t="s">
         <v>396</v>
       </c>
@@ -10905,7 +11013,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="510" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C510" s="10" t="s">
         <v>398</v>
       </c>
@@ -10927,7 +11035,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="511" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C511" s="10" t="s">
         <v>399</v>
       </c>
@@ -10943,7 +11051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="512" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C512" s="10" t="s">
         <v>400</v>
       </c>
@@ -10965,7 +11073,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="513" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C513" s="10" t="s">
         <v>401</v>
       </c>
@@ -10984,7 +11092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C514" s="10" t="s">
         <v>402</v>
       </c>
@@ -11003,7 +11111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C515" s="10" t="s">
         <v>403</v>
       </c>
@@ -11022,7 +11130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C516" s="10" t="s">
         <v>404</v>
       </c>
@@ -11041,7 +11149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C517" s="10" t="s">
         <v>405</v>
       </c>
@@ -11060,7 +11168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C518" s="10" t="s">
         <v>406</v>
       </c>
@@ -11079,7 +11187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C519" s="10" t="s">
         <v>407</v>
       </c>
@@ -11098,7 +11206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C520" s="10" t="s">
         <v>408</v>
       </c>
@@ -11117,7 +11225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C521" s="10" t="s">
         <v>409</v>
       </c>
@@ -11136,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C522" s="10" t="s">
         <v>410</v>
       </c>
@@ -11158,7 +11266,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="523" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C523" s="10" t="s">
         <v>411</v>
       </c>
@@ -11177,7 +11285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C524" s="10" t="s">
         <v>412</v>
       </c>
@@ -11196,7 +11304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C525" s="10" t="s">
         <v>413</v>
       </c>
@@ -11218,7 +11326,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="526" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C526" s="10" t="s">
         <v>414</v>
       </c>
@@ -11237,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C527" s="10" t="s">
         <v>204</v>
       </c>
@@ -11245,7 +11353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="528" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B528" s="10" t="s">
         <v>415</v>
       </c>
@@ -11267,7 +11375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C529" s="10" t="s">
         <v>417</v>
       </c>
@@ -11275,7 +11383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="530" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C530" s="10" t="s">
         <v>418</v>
       </c>
@@ -11294,7 +11402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C531" s="10" t="s">
         <v>419</v>
       </c>
@@ -11313,7 +11421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C532" s="10" t="s">
         <v>420</v>
       </c>
@@ -11331,7 +11439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C533" s="10" t="s">
         <v>421</v>
       </c>
@@ -11349,7 +11457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C534" s="10" t="s">
         <v>422</v>
       </c>
@@ -11366,7 +11474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C535" s="10" t="s">
         <v>694</v>
       </c>
@@ -11374,7 +11482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="536" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C536" s="10" t="s">
         <v>423</v>
       </c>
@@ -11393,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C537" s="10" t="s">
         <v>424</v>
       </c>
@@ -11412,7 +11520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C538" s="10" t="s">
         <v>425</v>
       </c>
@@ -11431,7 +11539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C539" s="10" t="s">
         <v>426</v>
       </c>
@@ -11450,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C540" s="10" t="s">
         <v>427</v>
       </c>
@@ -11469,7 +11577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C541" s="10" t="s">
         <v>428</v>
       </c>
@@ -11491,7 +11599,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="542" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C542" s="10" t="s">
         <v>429</v>
       </c>
@@ -11510,7 +11618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C543" s="10" t="s">
         <v>430</v>
       </c>
@@ -11532,7 +11640,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="544" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C544" s="10" t="s">
         <v>431</v>
       </c>
@@ -11551,7 +11659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C545" s="10" t="s">
         <v>432</v>
       </c>
@@ -11570,7 +11678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C546" s="10" t="s">
         <v>433</v>
       </c>
@@ -11589,7 +11697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C547" s="10" t="s">
         <v>434</v>
       </c>
@@ -11608,7 +11716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C548" s="10" t="s">
         <v>435</v>
       </c>
@@ -11627,7 +11735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C549" s="10" t="s">
         <v>436</v>
       </c>
@@ -11649,7 +11757,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="550" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C550" s="10" t="s">
         <v>437</v>
       </c>
@@ -11667,7 +11775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C551" s="10" t="s">
         <v>438</v>
       </c>
@@ -11685,7 +11793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C552" s="10" t="s">
         <v>439</v>
       </c>
@@ -11703,7 +11811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C553" s="10" t="s">
         <v>536</v>
       </c>
@@ -11721,7 +11829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C554" s="10" t="s">
         <v>440</v>
       </c>
@@ -11740,7 +11848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C555" s="10" t="s">
         <v>441</v>
       </c>
@@ -11759,7 +11867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C556" s="10" t="s">
         <v>442</v>
       </c>
@@ -11778,7 +11886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C557" s="10" t="s">
         <v>443</v>
       </c>
@@ -11797,7 +11905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C558" s="10" t="s">
         <v>444</v>
       </c>
@@ -11816,7 +11924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C559" s="10" t="s">
         <v>445</v>
       </c>
@@ -11834,7 +11942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C560" s="10" t="s">
         <v>446</v>
       </c>
@@ -11842,7 +11950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="561" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C561" s="10" t="s">
         <v>447</v>
       </c>
@@ -11861,7 +11969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C562" s="10" t="s">
         <v>385</v>
       </c>
@@ -11869,7 +11977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="563" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B563" s="10" t="s">
         <v>448</v>
       </c>
@@ -11890,7 +11998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C564" s="13" t="s">
         <v>450</v>
       </c>
@@ -11908,7 +12016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="C565" s="13" t="s">
         <v>451</v>
       </c>
@@ -11925,7 +12033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="C566" s="13" t="s">
         <v>452</v>
       </c>
@@ -11942,7 +12050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="2:11" ht="42" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:11" ht="56.25" x14ac:dyDescent="0.2">
       <c r="C567" s="13" t="s">
         <v>453</v>
       </c>
@@ -11959,7 +12067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="C568" s="13" t="s">
         <v>454</v>
       </c>
@@ -11976,7 +12084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="C569" s="13" t="s">
         <v>455</v>
       </c>
@@ -11993,7 +12101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:11" ht="33.75" x14ac:dyDescent="0.2">
       <c r="C570" s="13" t="s">
         <v>456</v>
       </c>
@@ -12010,7 +12118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B571" s="10" t="s">
         <v>457</v>
       </c>
@@ -12032,7 +12140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C572" s="10" t="s">
         <v>459</v>
       </c>
@@ -12051,7 +12159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C573" s="10" t="s">
         <v>460</v>
       </c>
@@ -12070,7 +12178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C574" s="10" t="s">
         <v>461</v>
       </c>
@@ -12091,7 +12199,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="575" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C575" s="10" t="s">
         <v>537</v>
       </c>
@@ -12099,7 +12207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C576" s="10" t="s">
         <v>462</v>
       </c>
@@ -12121,7 +12229,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="577" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C577" s="10" t="s">
         <v>463</v>
       </c>
@@ -12129,7 +12237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B578" s="10" t="s">
         <v>464</v>
       </c>
@@ -12150,7 +12258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="C579" s="13" t="s">
         <v>466</v>
       </c>
@@ -12169,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="C580" s="13" t="s">
         <v>467</v>
       </c>
@@ -12188,7 +12296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C581" s="13" t="s">
         <v>468</v>
       </c>
@@ -12206,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B582" s="10" t="s">
         <v>469</v>
       </c>
@@ -12217,7 +12325,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="583" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="C583" s="13" t="s">
         <v>470</v>
       </c>
@@ -12232,7 +12340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="584" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C584" s="13" t="s">
         <v>471</v>
       </c>
@@ -12240,7 +12348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="585" spans="2:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:11" ht="45" x14ac:dyDescent="0.2">
       <c r="C585" s="13" t="s">
         <v>472</v>
       </c>
@@ -12255,7 +12363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="586" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C586" s="13" t="s">
         <v>471</v>
       </c>
@@ -12263,7 +12371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="587" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="C587" s="13" t="s">
         <v>473</v>
       </c>
@@ -12281,7 +12389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C588" s="13" t="s">
         <v>69</v>
       </c>
@@ -12289,7 +12397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="589" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B589" s="10" t="s">
         <v>474</v>
       </c>
@@ -12303,7 +12411,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="590" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B590" s="10" t="s">
         <v>476</v>
       </c>
@@ -12312,7 +12420,7 @@
       </c>
       <c r="H590" s="12"/>
     </row>
-    <row r="591" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B591" s="10" t="s">
         <v>477</v>
       </c>
@@ -12334,7 +12442,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="592" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C592" s="10" t="s">
         <v>478</v>
       </c>
@@ -12352,7 +12460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C593" s="10" t="s">
         <v>479</v>
       </c>
@@ -12360,7 +12468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="594" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C594" s="10" t="s">
         <v>480</v>
       </c>
@@ -12368,7 +12476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="595" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C595" s="10" t="s">
         <v>481</v>
       </c>
@@ -12376,7 +12484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="596" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B596" s="10" t="s">
         <v>482</v>
       </c>
@@ -12385,7 +12493,7 @@
       </c>
       <c r="H596" s="12"/>
     </row>
-    <row r="597" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B597" s="10" t="s">
         <v>483</v>
       </c>
@@ -12410,7 +12518,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="598" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C598" s="10" t="s">
         <v>485</v>
       </c>
@@ -12432,7 +12540,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="599" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C599" s="10" t="s">
         <v>486</v>
       </c>
@@ -12454,7 +12562,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="600" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C600" s="10" t="s">
         <v>487</v>
       </c>
@@ -12476,7 +12584,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="601" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C601" s="10" t="s">
         <v>488</v>
       </c>
@@ -12495,7 +12603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C602" s="10" t="s">
         <v>489</v>
       </c>
@@ -12516,7 +12624,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="603" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B603" s="10" t="s">
         <v>490</v>
       </c>
@@ -12538,7 +12646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C604" s="10" t="s">
         <v>492</v>
       </c>
@@ -12557,7 +12665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C605" s="10" t="s">
         <v>493</v>
       </c>
@@ -12579,7 +12687,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="606" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C606" s="10" t="s">
         <v>494</v>
       </c>
@@ -12598,7 +12706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C607" s="10" t="s">
         <v>495</v>
       </c>
@@ -12620,7 +12728,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="608" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C608" s="10" t="s">
         <v>496</v>
       </c>
@@ -12641,7 +12749,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="609" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B609" s="10" t="s">
         <v>497</v>
       </c>
@@ -12666,7 +12774,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="610" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C610" s="10" t="s">
         <v>499</v>
       </c>
@@ -12685,7 +12793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C611" s="10" t="s">
         <v>500</v>
       </c>
@@ -12704,7 +12812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C612" s="10" t="s">
         <v>501</v>
       </c>
@@ -12723,7 +12831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C613" s="10" t="s">
         <v>502</v>
       </c>
@@ -12742,7 +12850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C614" s="10" t="s">
         <v>503</v>
       </c>
@@ -12761,7 +12869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C615" s="10" t="s">
         <v>504</v>
       </c>
@@ -12776,7 +12884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="616" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B616" s="10" t="s">
         <v>505</v>
       </c>
@@ -12798,7 +12906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C617" s="10" t="s">
         <v>507</v>
       </c>
@@ -12817,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C618" s="10" t="s">
         <v>508</v>
       </c>
@@ -12836,7 +12944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C619" s="10" t="s">
         <v>509</v>
       </c>
@@ -12855,7 +12963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C620" s="10" t="s">
         <v>510</v>
       </c>
@@ -12874,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C621" s="10" t="s">
         <v>511</v>
       </c>
@@ -12893,7 +13001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C622" s="10" t="s">
         <v>512</v>
       </c>
@@ -12912,7 +13020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C623" s="10" t="s">
         <v>513</v>
       </c>
@@ -12930,7 +13038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B624" s="10" t="s">
         <v>514</v>
       </c>
@@ -12951,7 +13059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C625" s="10" t="s">
         <v>516</v>
       </c>
@@ -12970,7 +13078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C626" s="10" t="s">
         <v>517</v>
       </c>
@@ -12989,7 +13097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C627" s="10" t="s">
         <v>518</v>
       </c>
@@ -13008,7 +13116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C628" s="10" t="s">
         <v>519</v>
       </c>
@@ -13027,7 +13135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C629" s="10" t="s">
         <v>520</v>
       </c>
@@ -13049,7 +13157,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="630" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C630" s="10" t="s">
         <v>521</v>
       </c>
@@ -13068,7 +13176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C631" s="10" t="s">
         <v>522</v>
       </c>
@@ -13087,7 +13195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C632" s="10" t="s">
         <v>523</v>
       </c>
@@ -13106,7 +13214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C633" s="10" t="s">
         <v>524</v>
       </c>
@@ -13125,7 +13233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C634" s="10" t="s">
         <v>525</v>
       </c>
@@ -13144,7 +13252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C635" s="10" t="s">
         <v>526</v>
       </c>
@@ -13163,7 +13271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C636" s="10" t="s">
         <v>527</v>
       </c>
@@ -13182,7 +13290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C637" s="10" t="s">
         <v>528</v>
       </c>
@@ -13201,7 +13309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C638" s="10" t="s">
         <v>529</v>
       </c>
@@ -13220,7 +13328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C639" s="10" t="s">
         <v>530</v>
       </c>
@@ -13239,7 +13347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C640" s="10" t="s">
         <v>531</v>
       </c>
@@ -13258,7 +13366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C641" s="10" t="s">
         <v>532</v>
       </c>
@@ -13277,7 +13385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C642" s="10" t="s">
         <v>533</v>
       </c>
@@ -13296,7 +13404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B643" s="30"/>
       <c r="C643" s="30" t="s">
         <v>534</v>
@@ -13318,7 +13426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B644" s="10" t="s">
         <v>515</v>
       </c>
@@ -13327,7 +13435,7 @@
       </c>
       <c r="H644" s="12"/>
     </row>
-    <row r="645" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B645" s="10" t="s">
         <v>516</v>
       </c>
@@ -13336,7 +13444,7 @@
       </c>
       <c r="H645" s="12"/>
     </row>
-    <row r="646" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B646" s="10" t="s">
         <v>517</v>
       </c>
@@ -13345,7 +13453,7 @@
       </c>
       <c r="H646" s="12"/>
     </row>
-    <row r="647" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B647" s="10" t="s">
         <v>518</v>
       </c>
@@ -13367,7 +13475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C648" s="10" t="s">
         <v>570</v>
       </c>
@@ -13386,7 +13494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C649" s="10" t="s">
         <v>571</v>
       </c>
@@ -13405,7 +13513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C650" s="10" t="s">
         <v>572</v>
       </c>
@@ -13424,7 +13532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C651" s="10" t="s">
         <v>573</v>
       </c>
@@ -13443,7 +13551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C652" s="10" t="s">
         <v>574</v>
       </c>
@@ -13462,7 +13570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C653" s="10" t="s">
         <v>575</v>
       </c>
@@ -13480,7 +13588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C654" s="10" t="s">
         <v>576</v>
       </c>
@@ -13499,7 +13607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C655" s="10" t="s">
         <v>577</v>
       </c>
@@ -13517,7 +13625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C656" s="10" t="s">
         <v>578</v>
       </c>
@@ -13535,7 +13643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A657" s="30"/>
       <c r="C657" s="10" t="s">
         <v>579</v>
@@ -13555,7 +13663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C658" s="10" t="s">
         <v>580</v>
       </c>
@@ -13574,7 +13682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C659" s="10" t="s">
         <v>581</v>
       </c>
@@ -13593,7 +13701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C660" s="10" t="s">
         <v>582</v>
       </c>
@@ -13612,7 +13720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C661" s="10" t="s">
         <v>583</v>
       </c>
@@ -13631,7 +13739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C662" s="10" t="s">
         <v>584</v>
       </c>
@@ -13650,7 +13758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C663" s="10" t="s">
         <v>548</v>
       </c>
@@ -13666,7 +13774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B664" s="10" t="s">
         <v>519</v>
       </c>
@@ -13685,7 +13793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C665" s="10" t="s">
         <v>540</v>
       </c>
@@ -13701,7 +13809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C666" s="10" t="s">
         <v>354</v>
       </c>
@@ -13717,7 +13825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C667" s="10" t="s">
         <v>541</v>
       </c>
@@ -13733,7 +13841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C668" s="10" t="s">
         <v>542</v>
       </c>
@@ -13749,7 +13857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C669" s="10" t="s">
         <v>543</v>
       </c>
@@ -13765,7 +13873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C670" s="10" t="s">
         <v>351</v>
       </c>
@@ -13781,7 +13889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C671" s="10" t="s">
         <v>544</v>
       </c>
@@ -13797,7 +13905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C672" s="10" t="s">
         <v>545</v>
       </c>
@@ -13813,7 +13921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="673" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C673" s="10" t="s">
         <v>546</v>
       </c>
@@ -13829,7 +13937,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="674" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C674" s="10" t="s">
         <v>547</v>
       </c>
@@ -13845,7 +13953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="675" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C675" s="10" t="s">
         <v>548</v>
       </c>
@@ -13861,7 +13969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="676" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B676" s="10" t="s">
         <v>520</v>
       </c>
@@ -13870,7 +13978,7 @@
       </c>
       <c r="H676" s="12"/>
     </row>
-    <row r="677" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B677" s="10" t="s">
         <v>521</v>
       </c>
@@ -13882,7 +13990,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="678" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B678" s="10" t="s">
         <v>522</v>
       </c>
@@ -13894,7 +14002,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="679" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B679" s="10" t="s">
         <v>523</v>
       </c>
@@ -13906,7 +14014,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="680" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B680" s="10" t="s">
         <v>524</v>
       </c>
@@ -13918,7 +14026,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="681" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B681" s="10" t="s">
         <v>525</v>
       </c>
@@ -13930,7 +14038,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="682" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B682" s="10" t="s">
         <v>526</v>
       </c>
@@ -13942,7 +14050,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="683" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B683" s="10" t="s">
         <v>527</v>
       </c>
@@ -13954,7 +14062,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="684" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B684" s="10" t="s">
         <v>528</v>
       </c>
@@ -13966,7 +14074,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="685" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B685" s="10" t="s">
         <v>529</v>
       </c>
@@ -13978,7 +14086,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="686" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B686" s="10" t="s">
         <v>530</v>
       </c>
@@ -13990,7 +14098,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="687" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B687" s="10" t="s">
         <v>531</v>
       </c>
@@ -14002,7 +14110,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="688" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B688" s="10" t="s">
         <v>532</v>
       </c>
@@ -14027,7 +14135,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="689" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C689" s="10" t="s">
         <v>550</v>
       </c>
@@ -14048,7 +14156,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="690" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C690" s="10" t="s">
         <v>551</v>
       </c>
@@ -14056,7 +14164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="691" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C691" s="10" t="s">
         <v>552</v>
       </c>
@@ -14075,7 +14183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C692" s="10" t="s">
         <v>553</v>
       </c>
@@ -14094,7 +14202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C693" s="10" t="s">
         <v>554</v>
       </c>
@@ -14112,7 +14220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C694" s="10" t="s">
         <v>555</v>
       </c>
@@ -14120,7 +14228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="695" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C695" s="10" t="s">
         <v>556</v>
       </c>
@@ -14128,7 +14236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="696" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C696" s="10" t="s">
         <v>557</v>
       </c>
@@ -14136,7 +14244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="697" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C697" s="10" t="s">
         <v>558</v>
       </c>
@@ -14144,7 +14252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="698" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C698" s="10" t="s">
         <v>696</v>
       </c>
@@ -14161,7 +14269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C699" s="10" t="s">
         <v>697</v>
       </c>
@@ -14175,7 +14283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="700" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C700" s="10" t="s">
         <v>560</v>
       </c>
@@ -14183,7 +14291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="701" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C701" s="10" t="s">
         <v>695</v>
       </c>
@@ -14200,7 +14308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C702" s="10" t="s">
         <v>561</v>
       </c>
@@ -14208,7 +14316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="703" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C703" s="10" t="s">
         <v>562</v>
       </c>
@@ -14227,7 +14335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C704" s="10" t="s">
         <v>564</v>
       </c>
@@ -14249,7 +14357,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="705" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C705" s="10" t="s">
         <v>563</v>
       </c>
@@ -14268,7 +14376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C706" s="10" t="s">
         <v>565</v>
       </c>
@@ -14286,7 +14394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C707" s="10" t="s">
         <v>566</v>
       </c>
@@ -14294,7 +14402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="708" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C708" s="10" t="s">
         <v>567</v>
       </c>
@@ -14305,7 +14413,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="709" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C709" s="10" t="s">
         <v>568</v>
       </c>
@@ -14327,7 +14435,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="710" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C710" s="10" t="s">
         <v>548</v>
       </c>
@@ -14338,7 +14446,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="711" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B711" s="10" t="s">
         <v>533</v>
       </c>
@@ -14350,7 +14458,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="712" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B712" s="10" t="s">
         <v>534</v>
       </c>
@@ -14359,7 +14467,7 @@
       </c>
       <c r="H712" s="12"/>
     </row>
-    <row r="713" spans="2:11" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B713" s="19"/>
       <c r="C713" s="19"/>
       <c r="D713" s="20"/>
@@ -14372,57 +14480,57 @@
         <v>633</v>
       </c>
     </row>
-    <row r="714" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K714" s="10" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="716" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K716" s="10" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="717" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K717" s="10" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="718" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K718" s="10" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="719" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K719" s="10" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="720" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K720" s="10" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K721" s="10" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K722" s="10" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K723" s="10" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K724" s="10" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="727" spans="1:11" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A727" s="19"/>
     </row>
   </sheetData>
@@ -14434,25 +14542,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7144007-A771-4314-B0C0-896501F5183D}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="34"/>
-    <col min="2" max="2" width="20.7265625" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.26953125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="99.90625" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="34"/>
+    <col min="1" max="1" width="17.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="99.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -14484,7 +14592,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>708</v>
       </c>
@@ -14504,16 +14612,16 @@
         <v>-7</v>
       </c>
       <c r="G2" s="34">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="34">
         <v>163</v>
       </c>
       <c r="I2" s="34">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>708</v>
       </c>
@@ -14530,19 +14638,19 @@
         <v>720</v>
       </c>
       <c r="F3" s="34">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="G3" s="34">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="34">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="I3" s="34">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>708</v>
       </c>
@@ -14559,19 +14667,19 @@
         <v>721</v>
       </c>
       <c r="F4" s="34">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="G4" s="34">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H4" s="34">
         <v>142</v>
       </c>
       <c r="I4" s="34">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>708</v>
       </c>
@@ -14588,19 +14696,19 @@
         <v>722</v>
       </c>
       <c r="F5" s="34">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="G5" s="34">
         <v>38</v>
       </c>
       <c r="H5" s="34">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I5" s="34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>708</v>
       </c>
@@ -14614,22 +14722,22 @@
         <v>22</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F6" s="34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="34">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6" s="34">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="I6" s="34">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>708</v>
       </c>
@@ -14643,23 +14751,1122 @@
         <v>22</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F7" s="34">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G7" s="34">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H7" s="34">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I7" s="34">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="36"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="F8" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G8" s="34">
+        <v>16</v>
+      </c>
+      <c r="H8" s="34">
+        <v>230</v>
+      </c>
+      <c r="I8" s="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>726</v>
+      </c>
+      <c r="F9" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G9" s="34">
+        <v>16</v>
+      </c>
+      <c r="H9" s="34">
+        <v>363</v>
+      </c>
+      <c r="I9" s="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>727</v>
+      </c>
+      <c r="F10" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G10" s="34">
+        <v>28</v>
+      </c>
+      <c r="H10" s="34">
+        <v>111</v>
+      </c>
+      <c r="I10" s="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>728</v>
+      </c>
+      <c r="F11" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G11" s="34">
+        <v>28</v>
+      </c>
+      <c r="H11" s="34">
+        <v>162</v>
+      </c>
+      <c r="I11" s="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>729</v>
+      </c>
+      <c r="F12" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G12" s="34">
+        <v>28</v>
+      </c>
+      <c r="H12" s="34">
+        <v>180</v>
+      </c>
+      <c r="I12" s="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>730</v>
+      </c>
+      <c r="F13" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G13" s="34">
+        <v>28</v>
+      </c>
+      <c r="H13" s="34">
+        <v>115</v>
+      </c>
+      <c r="I13" s="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>731</v>
+      </c>
+      <c r="F14" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G14" s="34">
+        <v>17</v>
+      </c>
+      <c r="H14" s="34">
+        <v>92</v>
+      </c>
+      <c r="I14" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>732</v>
+      </c>
+      <c r="F15" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G15" s="34">
+        <v>17</v>
+      </c>
+      <c r="H15" s="34">
+        <v>102</v>
+      </c>
+      <c r="I15" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>733</v>
+      </c>
+      <c r="F16" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G16" s="34">
+        <v>17</v>
+      </c>
+      <c r="H16" s="34">
+        <v>163</v>
+      </c>
+      <c r="I16" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>738</v>
+      </c>
+      <c r="F17" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G17" s="34">
+        <v>17</v>
+      </c>
+      <c r="H17" s="34">
+        <v>202</v>
+      </c>
+      <c r="I17" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>734</v>
+      </c>
+      <c r="F18" s="34">
+        <v>-7</v>
+      </c>
+      <c r="G18" s="34">
+        <v>19</v>
+      </c>
+      <c r="H18" s="34">
+        <v>69</v>
+      </c>
+      <c r="I18" s="34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>735</v>
+      </c>
+      <c r="F19" s="34">
+        <v>-7</v>
+      </c>
+      <c r="G19" s="34">
+        <v>19</v>
+      </c>
+      <c r="H19" s="34">
+        <v>132</v>
+      </c>
+      <c r="I19" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>736</v>
+      </c>
+      <c r="F20" s="34">
+        <v>-7</v>
+      </c>
+      <c r="G20" s="34">
+        <v>19</v>
+      </c>
+      <c r="H20" s="34">
+        <v>115</v>
+      </c>
+      <c r="I20" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="F21" s="34">
+        <v>-7</v>
+      </c>
+      <c r="G21" s="34">
+        <v>19</v>
+      </c>
+      <c r="H21" s="34">
+        <v>196</v>
+      </c>
+      <c r="I21" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>739</v>
+      </c>
+      <c r="F22" s="34">
+        <v>-7</v>
+      </c>
+      <c r="G22" s="34">
+        <v>24</v>
+      </c>
+      <c r="H22" s="34">
+        <v>140</v>
+      </c>
+      <c r="I22" s="34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>740</v>
+      </c>
+      <c r="F23" s="34">
+        <v>-7</v>
+      </c>
+      <c r="G23" s="34">
+        <v>30</v>
+      </c>
+      <c r="H23" s="34">
+        <v>141</v>
+      </c>
+      <c r="I23" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>748</v>
+      </c>
+      <c r="F24" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G24" s="34">
+        <v>17</v>
+      </c>
+      <c r="H24" s="34">
+        <v>292</v>
+      </c>
+      <c r="I24" s="34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>747</v>
+      </c>
+      <c r="F25" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G25" s="34">
+        <v>17</v>
+      </c>
+      <c r="H25" s="34">
+        <v>290</v>
+      </c>
+      <c r="I25" s="34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>741</v>
+      </c>
+      <c r="F26" s="34">
+        <v>-5</v>
+      </c>
+      <c r="G26" s="34">
+        <v>22</v>
+      </c>
+      <c r="H26" s="34">
+        <v>136</v>
+      </c>
+      <c r="I26" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>743</v>
+      </c>
+      <c r="F27" s="34">
+        <v>-5</v>
+      </c>
+      <c r="G27" s="34">
+        <v>22</v>
+      </c>
+      <c r="H27" s="34">
+        <v>181</v>
+      </c>
+      <c r="I27" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>742</v>
+      </c>
+      <c r="F28" s="34">
+        <v>-7</v>
+      </c>
+      <c r="G28" s="34">
+        <v>28</v>
+      </c>
+      <c r="H28" s="34">
+        <v>266</v>
+      </c>
+      <c r="I28" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>749</v>
+      </c>
+      <c r="F29" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G29" s="34">
+        <v>17</v>
+      </c>
+      <c r="H29" s="34">
+        <v>360</v>
+      </c>
+      <c r="I29" s="34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>750</v>
+      </c>
+      <c r="F30" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G30" s="34">
+        <v>17</v>
+      </c>
+      <c r="H30" s="34">
+        <v>232</v>
+      </c>
+      <c r="I30" s="34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>744</v>
+      </c>
+      <c r="F31" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G31" s="34">
+        <v>17</v>
+      </c>
+      <c r="H31" s="34">
+        <v>130</v>
+      </c>
+      <c r="I31" s="34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>745</v>
+      </c>
+      <c r="F32" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G32" s="34">
+        <v>17</v>
+      </c>
+      <c r="H32" s="34">
+        <v>186</v>
+      </c>
+      <c r="I32" s="34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>746</v>
+      </c>
+      <c r="F33" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G33" s="34">
+        <v>17</v>
+      </c>
+      <c r="H33" s="34">
+        <v>196</v>
+      </c>
+      <c r="I33" s="34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="35" t="s">
+        <v>752</v>
+      </c>
+      <c r="F34" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G34" s="34">
+        <v>39</v>
+      </c>
+      <c r="H34" s="34">
+        <v>309</v>
+      </c>
+      <c r="I34" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="F35" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G35" s="34">
+        <v>63</v>
+      </c>
+      <c r="H35" s="34">
+        <v>309</v>
+      </c>
+      <c r="I35" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="35" t="s">
+        <v>754</v>
+      </c>
+      <c r="F36" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G36" s="34">
+        <v>63</v>
+      </c>
+      <c r="H36" s="34">
+        <v>309</v>
+      </c>
+      <c r="I36" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="35" t="s">
+        <v>755</v>
+      </c>
+      <c r="F37" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G37" s="34">
+        <v>63</v>
+      </c>
+      <c r="H37" s="34">
+        <v>309</v>
+      </c>
+      <c r="I37" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>756</v>
+      </c>
+      <c r="F38" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G38" s="34">
+        <v>63</v>
+      </c>
+      <c r="H38" s="34">
+        <v>309</v>
+      </c>
+      <c r="I38" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>757</v>
+      </c>
+      <c r="F39" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G39" s="34">
+        <v>63</v>
+      </c>
+      <c r="H39" s="34">
+        <v>309</v>
+      </c>
+      <c r="I39" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>758</v>
+      </c>
+      <c r="F40" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G40" s="34">
+        <v>63</v>
+      </c>
+      <c r="H40" s="34">
+        <v>309</v>
+      </c>
+      <c r="I40" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>759</v>
+      </c>
+      <c r="F41" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G41" s="34">
+        <v>63</v>
+      </c>
+      <c r="H41" s="34">
+        <v>309</v>
+      </c>
+      <c r="I41" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>760</v>
+      </c>
+      <c r="F42" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G42" s="34">
+        <v>63</v>
+      </c>
+      <c r="H42" s="34">
+        <v>309</v>
+      </c>
+      <c r="I42" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>761</v>
+      </c>
+      <c r="F43" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G43" s="34">
+        <v>63</v>
+      </c>
+      <c r="H43" s="34">
+        <v>309</v>
+      </c>
+      <c r="I43" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>762</v>
+      </c>
+      <c r="F44" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G44" s="34">
+        <v>63</v>
+      </c>
+      <c r="H44" s="34">
+        <v>309</v>
+      </c>
+      <c r="I44" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>763</v>
+      </c>
+      <c r="F45" s="34">
+        <v>-6</v>
+      </c>
+      <c r="G45" s="34">
+        <v>63</v>
+      </c>
+      <c r="H45" s="34">
+        <v>309</v>
+      </c>
+      <c r="I45" s="34">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14667,6 +15874,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06E7C1F-0D83-48DC-8E0F-8EA89AF92CEE}">
+  <dimension ref="A2:A26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="34" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847B9702-E81D-401C-99FB-18E26D874C79}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -14674,32 +15921,32 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -14709,7 +15956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F77FBF-69BA-41C4-B23D-312D3A1192DD}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -14717,12 +15964,12 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14757,7 +16004,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>708</v>
       </c>
@@ -14788,7 +16035,7 @@
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>708</v>
       </c>
@@ -14819,7 +16066,7 @@
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>708</v>
       </c>
